--- a/biology/Zoologie/Agra_schwarzeneggeri/Agra_schwarzeneggeri.xlsx
+++ b/biology/Zoologie/Agra_schwarzeneggeri/Agra_schwarzeneggeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agra schwarzeneggeri est une espèce de coléoptère carabide portant le nom de l'acteur Arnold Schwarzenegger. 
-L'holotype a été collecté au Costa Rica et décrit pour la première fois en 2002[1]. 
+L'holotype a été collecté au Costa Rica et décrit pour la première fois en 2002. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nomenclature binomiale fait référence à Arnold Schwarzenegger, en raison du "fémur moyen" nettement développé (ressemblant au biceps) des mâles[1]. Erwin a plus tard fait remarquer dans une interview que ses étudiants avaient préparé une image de A. schwarzeneggeri et l'avaient envoyée à Schwarzenegger lui-même : il l'avait signée « Merci d'avoir pensé à moi - Arnold » et l'avait renvoyée. 
-Parmi les autres espèces du genre nommé par Terry L. Erwin figurent Agra liv nommé d'après Liv Tyler, et Agra katewinsletae nommée d'après Kate Winslet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nomenclature binomiale fait référence à Arnold Schwarzenegger, en raison du "fémur moyen" nettement développé (ressemblant au biceps) des mâles. Erwin a plus tard fait remarquer dans une interview que ses étudiants avaient préparé une image de A. schwarzeneggeri et l'avaient envoyée à Schwarzenegger lui-même : il l'avait signée « Merci d'avoir pensé à moi - Arnold » et l'avait renvoyée. 
+Parmi les autres espèces du genre nommé par Terry L. Erwin figurent Agra liv nommé d'après Liv Tyler, et Agra katewinsletae nommée d'après Kate Winslet.
 </t>
         </is>
       </c>
